--- a/biology/Médecine/Albert_Chenevier/Albert_Chenevier.xlsx
+++ b/biology/Médecine/Albert_Chenevier/Albert_Chenevier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Chenevier (1875-1939) est un juriste français qui fut secrétaire général de l'Assistance publique - Hôpitaux de Paris. Il a donné son nom à l'un des hôpitaux du groupe hospitalier Henri-Mondor de la ville de Créteil (Val-de-Marne).
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Chenevier soutient sa thèse de doctorat en droit à l'Université de Nancy en 1899[2]. Il commence sa carrière à l'Assistance publique en 1900 au service du contentieux. Il en occupera la fonction de secrétaire général de 1926 à 1938. Il sera notamment membre de la Ligue des droits de l'homme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Chenevier soutient sa thèse de doctorat en droit à l'Université de Nancy en 1899. Il commence sa carrière à l'Assistance publique en 1900 au service du contentieux. Il en occupera la fonction de secrétaire général de 1926 à 1938. Il sera notamment membre de la Ligue des droits de l'homme.
 Il épouse Suzanne Schmolle en 1913 et a une fille Antoinette en 1914. Antoinette Chenevier épouse Pierre Lazarus, avocat, résistant (réseau Brick FFC) en Ardèche, mort pour la France en déportation en 1945. Ils ont deux enfants : l'anthropologue Sylvain Lazarus né en 1943 et le professeur de médecine Antoine Lazarus né en 1941 marié à la psychiatre Caroline Mangin (fille de Stanislas Mangin, compagnon de la libération, et de Nicole Pleven). Ils ont deux filles : Marthe Lazarus et Jeanne Lazarus, compagne de Pap Ndiaye.
 </t>
         </is>
